--- a/database/seeds/2020-06-18 data test/เเฟ้มลูกหนี้.xlsx
+++ b/database/seeds/2020-06-18 data test/เเฟ้มลูกหนี้.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\megatech\database\seeds\2020-06-18 data test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F52E881-EF4D-43D1-9D4B-A8396DA0D31F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37487D5-8E0B-4132-BBFA-A56FA0C5C55C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2C89924-1D97-45EC-8C1D-DE7B321E3898}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F2C89924-1D97-45EC-8C1D-DE7B321E3898}"/>
   </bookViews>
   <sheets>
     <sheet name="Sqltmp" sheetId="1" r:id="rId1"/>
@@ -12044,8 +12044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F852C7-5089-4EDE-994E-D31F8A54EC9C}">
   <dimension ref="A1:R714"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C162" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G194" sqref="G194"/>
+    <sheetView tabSelected="1" topLeftCell="E162" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J162" sqref="J1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12058,6 +12058,7 @@
     <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -12296,7 +12297,7 @@
         <v>3876</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" ref="K5:Q68" si="13">"'"&amp;A5&amp;"',"</f>
+        <f t="shared" ref="K5:Q54" si="13">"'"&amp;A5&amp;"',"</f>
         <v>'B0013',</v>
       </c>
       <c r="L5" t="str">
@@ -15293,7 +15294,7 @@
         <v>'บริษัท มิยามะ อินดัสตรี้ (ประเทศไทย) จำกัด',</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" ref="M54:Q117" si="15">"'"&amp;C54&amp;"',"</f>
+        <f t="shared" ref="M54:Q104" si="15">"'"&amp;C54&amp;"',"</f>
         <v>'0',</v>
       </c>
       <c r="N54" t="str">
@@ -19250,7 +19251,7 @@
         <v>3876</v>
       </c>
       <c r="K119" t="str">
-        <f t="shared" ref="K119:Q182" si="18">"'"&amp;A119&amp;"',"</f>
+        <f t="shared" ref="K119:Q155" si="18">"'"&amp;A119&amp;"',"</f>
         <v>'P0031',</v>
       </c>
       <c r="L119" t="str">
@@ -20132,7 +20133,7 @@
         <v>'02-529-5426',</v>
       </c>
       <c r="R133" t="str">
-        <f t="shared" ref="R133:R195" si="19">"'"&amp;H133&amp;"');"</f>
+        <f t="shared" ref="R133:R194" si="19">"'"&amp;H133&amp;"');"</f>
         <v>'0145548000542');</v>
       </c>
     </row>
@@ -21458,7 +21459,7 @@
         <v>'0',</v>
       </c>
       <c r="N155" t="str">
-        <f t="shared" ref="N155:Q217" si="20">"'"&amp;D155&amp;"',"</f>
+        <f t="shared" ref="N155:Q194" si="20">"'"&amp;D155&amp;"',"</f>
         <v>'700/7 ม.1 ต.หนองขาม',</v>
       </c>
       <c r="O155" t="str">
@@ -21507,7 +21508,7 @@
         <v>3876</v>
       </c>
       <c r="K156" t="str">
-        <f t="shared" ref="K156:M218" si="21">"'"&amp;A156&amp;"',"</f>
+        <f t="shared" ref="K156:M194" si="21">"'"&amp;A156&amp;"',"</f>
         <v>'G0017',</v>
       </c>
       <c r="L156" t="str">
